--- a/02_output/09_plant_health/plant_height_median_per_plot.xlsx
+++ b/02_output/09_plant_health/plant_height_median_per_plot.xlsx
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>114.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
